--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -513,9 +513,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,6 +520,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2130,593 +2130,595 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AM13"/>
+  <dimension ref="B2:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="4" style="4" customWidth="1"/>
-    <col min="17" max="17" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.875" style="4"/>
-    <col min="22" max="22" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.875" style="4"/>
-    <col min="25" max="25" width="5.125" style="4" customWidth="1"/>
-    <col min="26" max="27" width="8.875" style="4"/>
-    <col min="28" max="28" width="8.875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="8.875" style="4"/>
-    <col min="30" max="30" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="6" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="4" style="3" customWidth="1"/>
+    <col min="18" max="18" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.25" style="3" customWidth="1"/>
+    <col min="21" max="22" width="8.875" style="3"/>
+    <col min="23" max="23" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.875" style="3"/>
+    <col min="26" max="26" width="5.125" style="3" customWidth="1"/>
+    <col min="27" max="28" width="8.875" style="3"/>
+    <col min="29" max="29" width="8.875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="8.875" style="3"/>
+    <col min="31" max="31" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="I2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="T2" s="3" t="s">
+      <c r="S2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AC2" s="3" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AD2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AF2" s="3" t="s">
+      <c r="AE2" s="6"/>
+      <c r="AG2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AI2" s="3" t="s">
+      <c r="AH2" s="6"/>
+      <c r="AJ2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AJ2" s="3"/>
-      <c r="AL2" s="3" t="s">
+      <c r="AK2" s="6"/>
+      <c r="AM2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AM2" s="3"/>
+      <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="6"/>
+      <c r="O3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="6"/>
+      <c r="R3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="T3" s="3" t="s">
+      <c r="S3" s="6"/>
+      <c r="U3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Z3" s="3" t="s">
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="AA3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="3"/>
-      <c r="AC3" s="3" t="s">
+      <c r="AB3" s="6"/>
+      <c r="AD3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AD3" s="3"/>
-      <c r="AF3" s="3" t="s">
+      <c r="AE3" s="6"/>
+      <c r="AG3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="3"/>
-      <c r="AI3" s="3" t="s">
+      <c r="AH3" s="6"/>
+      <c r="AJ3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AJ3" s="3"/>
-      <c r="AL3" s="3" t="s">
+      <c r="AK3" s="6"/>
+      <c r="AM3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" s="3"/>
+      <c r="AN3" s="6"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AH4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AK4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AM4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AN4" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="T5" s="6">
+      <c r="U5" s="5">
         <v>1</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="5">
         <v>1</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="W5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="Y5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="5">
         <v>1</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AB5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AD5" s="5">
         <v>1</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AE5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AG5" s="5">
         <v>1</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AH5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AJ5" s="5">
         <v>1</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AK5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AM5" s="5">
         <v>1</v>
       </c>
-      <c r="AM5" s="6" t="s">
+      <c r="AN5" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="5">
         <v>2</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="5">
         <v>2</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="5">
         <v>2</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="5">
         <v>2</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="5">
         <v>1</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="W6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="X6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="Y6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="5">
         <v>2</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AB6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AD6" s="5">
         <v>2</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AE6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AG6" s="5">
         <v>2</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AH6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AJ6" s="5">
         <v>2</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AK6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AM6" s="5">
         <v>2</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AN6" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="5">
         <v>3</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="5">
         <v>3</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="5">
         <v>3</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="5">
         <v>3</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="5">
         <v>1</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="W7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="X7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="Y7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AA7" s="5">
         <v>3</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AB7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AD7" s="5">
         <v>3</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AE7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AG7" s="5">
         <v>3</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AH7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AJ7" s="5">
         <v>3</v>
       </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AK7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AM7" s="5">
         <v>3</v>
       </c>
-      <c r="AM7" s="6" t="s">
+      <c r="AN7" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="5">
         <v>4</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="5">
         <v>6</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="5">
         <v>7</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="K12" s="6">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="L12" s="5">
         <v>8</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="K13" s="6">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="L13" s="5">
         <v>9</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
     <sheet name="表结构理解" sheetId="2" r:id="rId2"/>
+    <sheet name="表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>operation</t>
   </si>
@@ -181,14 +182,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>岗位_角色表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_position_role</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>m_role</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -201,18 +194,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>权限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>permission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>permission_operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +206,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>m_permission_operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>操作表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -374,6 +355,70 @@
   </si>
   <si>
     <t>s_vue_page_setting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_staff_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位_角色表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位_角色关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户_角色关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_position_role</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_position_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_permission_operation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,8 +455,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,8 +497,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -497,13 +564,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +645,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2089,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F26:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -2105,16 +2229,16 @@
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>0</v>
@@ -2133,7 +2257,7 @@
   <dimension ref="B2:AN13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2180,7 +2304,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="I2" s="6" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="J2" s="6"/>
       <c r="L2" s="6" t="s">
@@ -2192,34 +2316,34 @@
       </c>
       <c r="P2" s="6"/>
       <c r="R2" s="6" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="S2" s="6"/>
       <c r="U2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="AA2" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AD2" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AE2" s="6"/>
       <c r="AG2" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="6"/>
       <c r="AJ2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AK2" s="6"/>
       <c r="AM2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="6"/>
     </row>
@@ -2234,46 +2358,46 @@
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="I3" s="6" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P3" s="6"/>
       <c r="R3" s="6" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="S3" s="6"/>
       <c r="U3" s="6" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="AA3" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AD3" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AE3" s="6"/>
       <c r="AG3" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH3" s="6"/>
       <c r="AJ3" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AK3" s="6"/>
       <c r="AM3" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AN3" s="6"/>
     </row>
@@ -2294,7 +2418,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>6</v>
@@ -2312,55 +2436,55 @@
         <v>9</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AB4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:40" x14ac:dyDescent="0.2">
@@ -2401,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U5" s="5">
         <v>1</v>
@@ -2410,43 +2534,43 @@
         <v>1</v>
       </c>
       <c r="W5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="AA5" s="5">
         <v>1</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AD5" s="5">
         <v>1</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AJ5" s="5">
         <v>1</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AM5" s="5">
         <v>1</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
@@ -2487,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
@@ -2496,43 +2620,43 @@
         <v>1</v>
       </c>
       <c r="W6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="AA6" s="5">
         <v>2</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD6" s="5">
         <v>2</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AG6" s="5">
         <v>2</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AJ6" s="5">
         <v>2</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM6" s="5">
         <v>2</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.2">
@@ -2549,13 +2673,13 @@
         <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L7" s="5">
         <v>3</v>
@@ -2567,13 +2691,13 @@
         <v>3</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R7" s="5">
         <v>3</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U7" s="5">
         <v>3</v>
@@ -2582,43 +2706,43 @@
         <v>1</v>
       </c>
       <c r="W7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="AA7" s="5">
         <v>3</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AD7" s="5">
         <v>3</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AG7" s="5">
         <v>3</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AJ7" s="5">
         <v>3</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AM7" s="5">
         <v>3</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.2">
@@ -2695,6 +2819,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="I3:J3"/>
@@ -2707,20 +2843,155 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t>operation</t>
   </si>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m_role_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>permission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +202,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>操作表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,14 +210,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>菜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>s_module</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -291,10 +275,6 @@
   </si>
   <si>
     <t>删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_operation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -406,20 +386,103 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>s_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>权限表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_permission_operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>m_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role_permission</t>
+  </si>
+  <si>
+    <t>m_role_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色_权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员权限、XX岗位权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_dept_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门_角色关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限，一个角色有多个权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -634,6 +697,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,18 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2232,13 +2295,13 @@
         <v>40</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="O26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>0</v>
@@ -2256,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2294,112 +2357,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="O2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="R2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="L2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="O2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="R2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" s="6"/>
-      <c r="U2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="AA2" s="6" t="s">
+      <c r="S2" s="10"/>
+      <c r="U2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="AA2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="10"/>
+      <c r="AD2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE2" s="10"/>
+      <c r="AG2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="10"/>
+      <c r="AJ2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="6"/>
-      <c r="AD2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AG2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="6"/>
-      <c r="AJ2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK2" s="6"/>
-      <c r="AM2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN2" s="6"/>
+      <c r="AK2" s="10"/>
+      <c r="AM2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN2" s="10"/>
     </row>
     <row r="3" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="I3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="I3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="R3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="U3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="AA3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="6"/>
-      <c r="AD3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE3" s="6"/>
-      <c r="AG3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH3" s="6"/>
-      <c r="AJ3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK3" s="6"/>
-      <c r="AM3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN3" s="6"/>
+      <c r="M3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="U3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="AA3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" s="10"/>
+      <c r="AD3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE3" s="10"/>
+      <c r="AG3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="10"/>
+      <c r="AJ3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" s="10"/>
+      <c r="AM3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -2418,7 +2481,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>6</v>
@@ -2436,55 +2499,55 @@
         <v>9</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AB4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:40" x14ac:dyDescent="0.2">
@@ -2525,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U5" s="5">
         <v>1</v>
@@ -2534,43 +2597,43 @@
         <v>1</v>
       </c>
       <c r="W5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="AA5" s="5">
         <v>1</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AD5" s="5">
         <v>1</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AJ5" s="5">
         <v>1</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AM5" s="5">
         <v>1</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
@@ -2611,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
@@ -2620,43 +2683,43 @@
         <v>1</v>
       </c>
       <c r="W6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="AA6" s="5">
         <v>2</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AD6" s="5">
         <v>2</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AG6" s="5">
         <v>2</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ6" s="5">
         <v>2</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AM6" s="5">
         <v>2</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.2">
@@ -2673,13 +2736,13 @@
         <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L7" s="5">
         <v>3</v>
@@ -2691,13 +2754,13 @@
         <v>3</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R7" s="5">
         <v>3</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U7" s="5">
         <v>3</v>
@@ -2706,43 +2769,43 @@
         <v>1</v>
       </c>
       <c r="W7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="AA7" s="5">
         <v>3</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD7" s="5">
         <v>3</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AG7" s="5">
         <v>3</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AJ7" s="5">
         <v>3</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM7" s="5">
         <v>3</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.2">
@@ -2819,18 +2882,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="I3:J3"/>
@@ -2843,6 +2894,18 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2851,143 +2914,225 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>85</v>
       </c>
+      <c r="E5" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>88</v>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>91</v>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="12" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="E8" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>97</v>
-      </c>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
     <sheet name="表结构理解" sheetId="2" r:id="rId2"/>
     <sheet name="表" sheetId="3" r:id="rId3"/>
+    <sheet name="m_permission" sheetId="5" r:id="rId4"/>
+    <sheet name="s_operation" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
   <si>
     <t>operation</t>
   </si>
@@ -350,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m_staff_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m_role</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,10 +376,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>m_position_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>权限</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -399,13 +393,126 @@
   </si>
   <si>
     <t>m_role_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色_权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门_角色关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限，一个角色有多个权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role_staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m_role_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色_权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限、部门权限、岗位权限、排除权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能操作表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,76 +520,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m_dept_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门_角色关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限，一个角色有多个权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>类型：用户权限、部门权限、岗位权限、排除权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是已经删除(1:true-已删除,0:false-未删除)</t>
+  </si>
+  <si>
+    <t>is_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用(1:false-未启用,0:true-已启用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户id</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作编码，权限字符串</t>
   </si>
 </sst>
 </file>
@@ -678,7 +774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +816,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2320,7 +2419,7 @@
   <dimension ref="B2:AN13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AE2"/>
+      <selection activeCell="AA3" sqref="AA3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2367,7 +2466,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
       <c r="I2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="10"/>
       <c r="L2" s="10" t="s">
@@ -2379,7 +2478,7 @@
       </c>
       <c r="P2" s="10"/>
       <c r="R2" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S2" s="10"/>
       <c r="U2" s="10" t="s">
@@ -2390,11 +2489,11 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
       <c r="AA2" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="10"/>
       <c r="AD2" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AE2" s="10"/>
       <c r="AG2" s="10" t="s">
@@ -2421,7 +2520,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="I3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" s="10"/>
       <c r="L3" s="10" t="s">
@@ -2429,26 +2528,26 @@
       </c>
       <c r="M3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
       <c r="AA3" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AD3" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AE3" s="10"/>
       <c r="AG3" s="10" t="s">
@@ -2914,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2927,6 +3026,259 @@
     <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2935,13 +3287,13 @@
         <v>78</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -2949,11 +3301,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -2961,27 +3311,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -2989,154 +3337,220 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>99</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>106</v>
+        <v>131</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="8">
+      <c r="B10" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="8">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="8">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="8">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="8">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="8">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="8">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="9">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
     <sheet name="表结构理解" sheetId="2" r:id="rId2"/>
     <sheet name="表" sheetId="3" r:id="rId3"/>
     <sheet name="m_permission" sheetId="5" r:id="rId4"/>
-    <sheet name="s_operation" sheetId="6" r:id="rId5"/>
+    <sheet name="m_permission_operation" sheetId="10" r:id="rId5"/>
+    <sheet name="s_operation" sheetId="6" r:id="rId6"/>
+    <sheet name="s_pages" sheetId="7" r:id="rId7"/>
+    <sheet name="s_pages_function" sheetId="8" r:id="rId8"/>
+    <sheet name="s_menu" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="219">
   <si>
     <t>operation</t>
   </si>
@@ -212,14 +216,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>s_module</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_module_button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,10 +228,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>模块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -428,67 +420,360 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>权限操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role_staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能操作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员权限、XX岗位权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：用户权限、部门权限、岗位权限、排除权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是已经删除(1:true-已删除,0:false-未删除)</t>
+  </si>
+  <si>
+    <t>is_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用(1:false-未启用,0:true-已启用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户id</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作编码，权限字符串</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例:P_DICT_DATA（页面）:PAGE（位置）:ADD（操作），该表应该只有页面的code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id；菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：P_DICT_DATA（页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/views/01_dashboard/index</t>
+  </si>
+  <si>
+    <t>perms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：ADD，UPD，……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：P_DICT_DATA:PAGE:ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：P_DICT_DATA（页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA:PAGE:ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA:PAGE:UPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA:PAGE:EXPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面-字典表-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面-字典表-更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面-字典表-导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限、部门权限、岗位权限、排除权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>m_permission_operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_operation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_role_staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_role_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_role_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_role_permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
+    <t>permission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page；menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父菜单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿子个数</t>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>operation_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能操作ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,96 +781,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权限、部门权限、岗位权限、排除权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能操作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员权限、XX岗位权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型：用户权限、部门权限、岗位权限、排除权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是已经删除(1:true-已删除,0:false-未删除)</t>
-  </si>
-  <si>
-    <t>is_enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否禁用(1:false-未启用,0:true-已启用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租户id</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作编码，权限字符串</t>
+    <t>PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单-租户主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单-租户主菜单-首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/views/01_dashboard/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面操作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +945,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -774,7 +1102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +1133,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,8 +1148,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,6 +2439,1073 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="1400175"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>功能操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="590550"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="2552700"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>菜单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11744325" y="590550"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按钮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="1400175"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>功能操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>按页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="590550"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="2552700"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>菜单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11744325" y="590550"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按钮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="1400175"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>功能操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>按页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="590550"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610725" y="2552700"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>菜单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11782425" y="590550"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按钮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="1400175"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>功能操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>按页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12734925" y="590550"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="2552700"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>菜单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14963775" y="590550"/>
+          <a:ext cx="1628775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>按钮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2418,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AB3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2456,112 +3857,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="L2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="O2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="R2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="U2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="AA2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="11"/>
+      <c r="AD2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" s="11"/>
+      <c r="AG2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH2" s="11"/>
+      <c r="AJ2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK2" s="11"/>
+      <c r="AM2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN2" s="11"/>
+    </row>
+    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="I3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="L2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="O2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="R2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="10"/>
-      <c r="U2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="AA2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="10"/>
-      <c r="AD2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AG2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="10"/>
-      <c r="AJ2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK2" s="10"/>
-      <c r="AM2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN2" s="10"/>
-    </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="E3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="11"/>
+      <c r="L3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="O3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="L3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="O3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" s="10"/>
-      <c r="R3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="U3" s="10" t="s">
+      <c r="S3" s="11"/>
+      <c r="U3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="AA3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="AA3" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB3" s="10"/>
-      <c r="AD3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE3" s="10"/>
-      <c r="AG3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" s="10"/>
-      <c r="AJ3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK3" s="10"/>
-      <c r="AM3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN3" s="10"/>
+      <c r="AB3" s="11"/>
+      <c r="AD3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="11"/>
+      <c r="AG3" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH3" s="11"/>
+      <c r="AJ3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK3" s="11"/>
+      <c r="AM3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" s="11"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -2580,7 +3981,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>6</v>
@@ -2598,55 +3999,55 @@
         <v>9</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="AB4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AH4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="AN4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:40" x14ac:dyDescent="0.2">
@@ -2687,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U5" s="5">
         <v>1</v>
@@ -2696,43 +4097,43 @@
         <v>1</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AA5" s="5">
         <v>1</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="5">
         <v>1</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AJ5" s="5">
         <v>1</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AM5" s="5">
         <v>1</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
@@ -2773,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
@@ -2782,43 +4183,43 @@
         <v>1</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AA6" s="5">
         <v>2</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD6" s="5">
         <v>2</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AG6" s="5">
         <v>2</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AJ6" s="5">
         <v>2</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM6" s="5">
         <v>2</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.2">
@@ -2835,13 +4236,13 @@
         <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L7" s="5">
         <v>3</v>
@@ -2853,13 +4254,13 @@
         <v>3</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R7" s="5">
         <v>3</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U7" s="5">
         <v>3</v>
@@ -2868,43 +4269,43 @@
         <v>1</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AA7" s="5">
         <v>3</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD7" s="5">
         <v>3</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AG7" s="5">
         <v>3</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AJ7" s="5">
         <v>3</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AM7" s="5">
         <v>3</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.2">
@@ -2981,6 +4382,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="I3:J3"/>
@@ -2993,18 +4406,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3013,10 +4414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3025,176 +4426,201 @@
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>122</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -3202,8 +4628,9 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -3211,8 +4638,9 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -3220,8 +4648,9 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -3229,8 +4658,9 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -3238,8 +4668,9 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -3247,8 +4678,9 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -3256,6 +4688,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3266,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3282,115 +4715,152 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E10" s="9"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3400,10 +4870,161 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3411,22 +5032,25 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -3434,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -3442,10 +5066,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -3453,31 +5080,340 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -3494,6 +5430,445 @@
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>D21</f>
+        <v>P_DICT_DATA</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>E22&amp;":"&amp;D22</f>
+        <v>PAGE:ADD</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>E23&amp;":"&amp;D23</f>
+        <v>PAGE:UPD</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>E24&amp;":"&amp;D24</f>
+        <v>PAGE:EXPORT</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+    </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
@@ -3552,5 +5927,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="221">
   <si>
     <t>operation</t>
   </si>
@@ -585,319 +585,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/views/01_dashboard/index</t>
+  </si>
+  <si>
+    <t>perms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：ADD，UPD，……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：P_DICT_DATA:PAGE:ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：P_DICT_DATA（页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA:PAGE:ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA:PAGE:UPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA:PAGE:EXPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面-字典表-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面-字典表-更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面-字典表-导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限、部门权限、岗位权限、排除权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_permission_operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page；menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父菜单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿子个数</t>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>operation_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能操作ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单-租户主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单-租户主菜单-首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>页面名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>页面地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/views/01_dashboard/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DICT_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面操作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>component</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/views/01_dashboard/index</t>
-  </si>
-  <si>
-    <t>perms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：ADD，UPD，……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：P_DICT_DATA:PAGE:ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：P_DICT_DATA（页面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_DICT_DATA:PAGE:ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_DICT_DATA:PAGE:UPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_DICT_DATA:PAGE:EXPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面-字典表-新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面-字典表-更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面-字典表-导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权限、部门权限、岗位权限、排除权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控岗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_permission_operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page；menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘00010001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根节点id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父菜单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿子个数</t>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>operation_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能操作ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单-租户主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单-租户主菜单-首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>权限标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/views/01_dashboard/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_DICT_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAGE：主页面上，TABLE：表格上，POPUP：弹出框上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按钮编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面操作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>page_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages_button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_pages_function的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3898,7 +3906,7 @@
       </c>
       <c r="AE2" s="11"/>
       <c r="AG2" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AH2" s="11"/>
       <c r="AJ2" s="11" t="s">
@@ -3952,11 +3960,11 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AG3" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AH3" s="11"/>
       <c r="AJ3" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AK3" s="11"/>
       <c r="AM3" s="11" t="s">
@@ -4416,7 +4424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -4443,7 +4451,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>117</v>
@@ -4553,7 +4561,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>97</v>
@@ -4581,13 +4589,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -4597,13 +4605,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -4613,7 +4621,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4762,7 +4770,7 @@
         <v>113</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -4856,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4914,10 +4922,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -4926,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -4948,13 +4956,13 @@
         <v>108</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -4968,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -4982,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -4996,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -5010,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5119,7 @@
         <v>132</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5119,10 +5127,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5130,15 +5138,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F23" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
@@ -5158,7 +5166,7 @@
         <v>134</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
@@ -5166,16 +5174,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
@@ -5183,16 +5191,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
@@ -5200,16 +5208,16 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
@@ -5217,16 +5225,16 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
@@ -5234,16 +5242,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.2">
@@ -5251,16 +5259,16 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.2">
@@ -5306,7 +5314,7 @@
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5348,13 +5356,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -5365,10 +5373,10 @@
         <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5376,13 +5384,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5390,10 +5398,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>138</v>
@@ -5404,10 +5412,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5441,13 +5449,13 @@
         <v>118</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
@@ -5455,20 +5463,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>D21</f>
         <v>P_DICT_DATA</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
@@ -5512,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5560,10 +5568,10 @@
         <v>109</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -5571,13 +5579,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5588,7 +5596,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5596,13 +5604,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5610,10 +5618,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5621,10 +5629,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -5640,19 +5648,19 @@
         <v>109</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
@@ -5660,13 +5668,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>E22&amp;":"&amp;D22</f>
@@ -5681,13 +5689,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>E23&amp;":"&amp;D23</f>
@@ -5702,13 +5710,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>E24&amp;":"&amp;D24</f>
@@ -5796,7 +5804,7 @@
         <v>112</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -5807,7 +5815,7 @@
         <v>118</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5815,10 +5823,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5826,10 +5834,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5837,10 +5845,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5848,10 +5856,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">

--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="222">
   <si>
     <t>operation</t>
   </si>
@@ -619,10 +619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -906,6 +902,14 @@
   </si>
   <si>
     <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_menus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,6 +1148,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1155,12 +1165,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3865,112 +3869,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="J2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="M2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="R2" s="11" t="s">
+      <c r="P2" s="13"/>
+      <c r="R2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="U2" s="11" t="s">
+      <c r="S2" s="13"/>
+      <c r="U2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="AA2" s="11" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="AA2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AD2" s="11" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AD2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="11"/>
-      <c r="AG2" s="11" t="s">
+      <c r="AE2" s="13"/>
+      <c r="AG2" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH2" s="13"/>
+      <c r="AJ2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK2" s="13"/>
+      <c r="AM2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN2" s="13"/>
+    </row>
+    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="L3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="O3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="R3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="U3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="AA3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AD3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AG3" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AH2" s="11"/>
-      <c r="AJ2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK2" s="11"/>
-      <c r="AM2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN2" s="11"/>
-    </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="I3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="L3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="O3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="R3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="11"/>
-      <c r="U3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="AA3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB3" s="11"/>
-      <c r="AD3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE3" s="11"/>
-      <c r="AG3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH3" s="11"/>
-      <c r="AJ3" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK3" s="11"/>
-      <c r="AM3" s="11" t="s">
+      <c r="AH3" s="13"/>
+      <c r="AJ3" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK3" s="13"/>
+      <c r="AM3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AN3" s="11"/>
+      <c r="AN3" s="13"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -4390,18 +4394,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="I3:J3"/>
@@ -4414,6 +4406,18 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4424,8 +4428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4451,7 +4455,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>117</v>
@@ -4561,7 +4565,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>97</v>
@@ -4589,13 +4593,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -4605,13 +4609,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -4621,7 +4625,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4632,7 +4636,9 @@
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -4770,7 +4776,7 @@
         <v>113</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -4864,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4922,10 +4928,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -4934,10 +4940,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -4956,13 +4962,13 @@
         <v>108</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -4976,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -4990,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -5004,7 +5010,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -5018,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5119,7 +5125,7 @@
         <v>132</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5138,15 +5144,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
@@ -5174,16 +5180,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
@@ -5191,16 +5197,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
@@ -5208,16 +5214,16 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
@@ -5225,16 +5231,16 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
@@ -5242,16 +5248,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.2">
@@ -5259,16 +5265,16 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.2">
@@ -5355,14 +5361,14 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>157</v>
+      <c r="C4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -5373,10 +5379,10 @@
         <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5384,10 +5390,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>140</v>
@@ -5401,7 +5407,7 @@
         <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>138</v>
@@ -5442,7 +5448,7 @@
       <c r="C20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="11" t="s">
         <v>109</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -5463,20 +5469,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>D21</f>
         <v>P_DICT_DATA</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
@@ -5520,7 +5526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -5564,13 +5570,13 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5585,7 +5591,7 @@
         <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5596,7 +5602,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5607,7 +5613,7 @@
         <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>147</v>
@@ -5629,10 +5635,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -5644,7 +5650,7 @@
       <c r="C21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="11" t="s">
         <v>109</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -5660,7 +5666,7 @@
         <v>142</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
@@ -5668,13 +5674,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>E22&amp;":"&amp;D22</f>
@@ -5689,13 +5695,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>E23&amp;":"&amp;D23</f>
@@ -5710,13 +5716,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>E24&amp;":"&amp;D24</f>
@@ -5803,19 +5809,19 @@
       <c r="D4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>176</v>
+      <c r="E4" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>175</v>
+      <c r="D5" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5823,10 +5829,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5834,10 +5840,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5845,10 +5851,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5856,10 +5862,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">

--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="243">
   <si>
     <t>operation</t>
   </si>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>s_vue_page_setting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,10 +865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_pages_button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>s_pages_function的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -911,6 +903,95 @@
   <si>
     <t>s_menus</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pages_function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单类型（R：根节点，M：菜单， N：结点 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单状态（0显示 1隐藏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求地址</t>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由编号，需要唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附在导航栏不可关闭</t>
+  </si>
+  <si>
+    <t>descr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant_id</t>
   </si>
 </sst>
 </file>
@@ -3829,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AN13"/>
+  <dimension ref="B2:AK13"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3868,7 +3949,7 @@
     <col min="32" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>36</v>
       </c>
@@ -3879,7 +3960,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
       <c r="I2" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="13"/>
       <c r="L2" s="13" t="s">
@@ -3891,7 +3972,7 @@
       </c>
       <c r="P2" s="13"/>
       <c r="R2" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S2" s="13"/>
       <c r="U2" s="13" t="s">
@@ -3902,27 +3983,23 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
       <c r="AA2" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB2" s="13"/>
       <c r="AD2" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE2" s="13"/>
       <c r="AG2" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH2" s="13"/>
       <c r="AJ2" s="13" t="s">
         <v>45</v>
       </c>
       <c r="AK2" s="13"/>
-      <c r="AM2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN2" s="13"/>
-    </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>37</v>
       </c>
@@ -3933,7 +4010,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
       <c r="I3" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="13"/>
       <c r="L3" s="13" t="s">
@@ -3941,42 +4018,38 @@
       </c>
       <c r="M3" s="13"/>
       <c r="O3" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P3" s="13"/>
       <c r="R3" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S3" s="13"/>
       <c r="U3" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
       <c r="AA3" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB3" s="13"/>
       <c r="AD3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE3" s="13"/>
       <c r="AG3" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH3" s="13"/>
       <c r="AJ3" s="13" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AK3" s="13"/>
-      <c r="AM3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN3" s="13"/>
-    </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4055,14 +4128,8 @@
       <c r="AK4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AM4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -4141,14 +4208,8 @@
       <c r="AK5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AM5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -4227,14 +4288,8 @@
       <c r="AK6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AM6" s="5">
-        <v>2</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -4313,14 +4368,8 @@
       <c r="AK7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AM7" s="5">
-        <v>3</v>
-      </c>
-      <c r="AN7" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -4334,7 +4383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -4348,7 +4397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -4362,7 +4411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -4376,7 +4425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
       <c r="L12" s="5">
         <v>8</v>
       </c>
@@ -4384,7 +4433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
       <c r="L13" s="5">
         <v>9</v>
       </c>
@@ -4393,7 +4442,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="I3:J3"/>
@@ -4406,18 +4465,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4428,8 +4475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4446,22 +4493,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
@@ -4469,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -4483,14 +4530,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -4499,14 +4546,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -4515,14 +4562,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -4531,14 +4578,14 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -4547,17 +4594,17 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -4565,10 +4612,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -4579,10 +4626,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -4593,13 +4640,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -4609,13 +4656,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -4625,7 +4672,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4637,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -4731,16 +4778,16 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -4748,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -4758,10 +4805,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -4770,13 +4817,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -4784,10 +4831,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -4796,10 +4843,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -4808,10 +4855,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -4820,10 +4867,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -4832,37 +4879,37 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
@@ -4870,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4901,16 +4948,16 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -4918,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -4928,10 +4975,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -4940,10 +4987,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -4951,24 +4998,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -4982,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -4996,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -5010,7 +5057,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -5024,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5055,16 +5102,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -5072,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -5080,13 +5127,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -5094,10 +5141,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5105,13 +5152,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5119,13 +5166,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5133,10 +5180,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5144,35 +5191,35 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F23" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
@@ -5180,16 +5227,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
@@ -5197,16 +5244,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
@@ -5214,16 +5261,16 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
@@ -5231,16 +5278,16 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
@@ -5248,16 +5295,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.2">
@@ -5265,16 +5312,16 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.2">
@@ -5337,16 +5384,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -5354,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -5362,13 +5409,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -5376,13 +5423,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5390,13 +5437,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5404,13 +5451,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5418,10 +5465,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5446,22 +5493,22 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
@@ -5469,20 +5516,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>D21</f>
         <v>P_DICT_DATA</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
@@ -5546,16 +5593,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -5563,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -5571,13 +5618,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -5585,13 +5632,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5599,10 +5646,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5610,13 +5657,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5624,10 +5671,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5635,10 +5682,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -5648,25 +5695,25 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
@@ -5674,13 +5721,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>E22&amp;":"&amp;D22</f>
@@ -5695,13 +5742,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>E23&amp;":"&amp;D23</f>
@@ -5716,13 +5763,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>E24&amp;":"&amp;D24</f>
@@ -5763,15 +5810,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -5779,16 +5826,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -5796,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -5804,13 +5851,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -5818,10 +5865,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -5829,10 +5876,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -5840,10 +5887,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5851,10 +5898,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -5862,78 +5909,150 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -5941,6 +6060,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="714" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="er图理解" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="245">
   <si>
     <t>operation</t>
   </si>
@@ -992,6 +992,14 @@
   </si>
   <si>
     <t>tenant_id</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1052,7 +1060,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,6 +1088,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,6 +1260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3910,10 +3927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AK13"/>
+  <dimension ref="B1:AK13"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AE7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3949,6 +3966,17 @@
     <col min="32" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AD1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>36</v>
@@ -4443,16 +4471,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="I3:J3"/>
@@ -4465,6 +4483,16 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4476,7 +4504,7 @@
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4639,13 +4667,13 @@
       <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="17" t="s">
         <v>212</v>
       </c>
       <c r="F11" s="8"/>
@@ -4655,13 +4683,13 @@
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="17" t="s">
         <v>212</v>
       </c>
       <c r="F12" s="8"/>
@@ -4671,11 +4699,11 @@
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
@@ -4683,11 +4711,11 @@
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
@@ -5810,8 +5838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
